--- a/Industrials/United Rentals.xlsx
+++ b/Industrials/United Rentals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B768600-4E8C-C94D-8CDC-7F37E4AC82FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40216318-D2E0-A44D-8560-84F04BFEC13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1386,7 +1386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1700,8 +1700,11 @@
     <xf numFmtId="9" fontId="3" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1734,11 +1737,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1756,7 +1762,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.3360000000000003E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1768,6 +1774,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1893,13 +1902,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>492.33</v>
+    <v>505.15499999999997</v>
     <v>325.14999999999998</v>
-    <v>1.8059000000000001</v>
-    <v>20.43</v>
-    <v>4.4814E-2</v>
-    <v>0.28000000000000003</v>
-    <v>5.8799999999999998E-4</v>
+    <v>1.8422000000000001</v>
+    <v>11.04</v>
+    <v>2.2808999999999999E-2</v>
+    <v>0.94</v>
+    <v>1.8990000000000001E-3</v>
     <v>USD</v>
     <v>United Rentals, Inc. is an equipment rental company. The Company operates through two segments: general rentals and specialty. The general rentals segment includes the rental of construction, aerial and industrial equipment, general tools and light equipment, and related services and activities. The general rentals segment’s customers include construction and industrial companies, manufacturers, utilities, municipalities and homeowners. The Company's specialty segment includes the rental of specialty construction products, such as trench safety equipment; power and heating, ventilation, and air conditioning (HVAC) equipment; fluid solutions equipment, and mobile storage equipment and modular office space. The specialty segment’s customers include construction companies engaged in infrastructure projects, municipalities and industrial companies. It operates throughout the United States, Canada, Europe, Australia and New Zealand. Its subsidiary is United Rentals (North America), Inc.</v>
     <v>24600</v>
@@ -1907,25 +1916,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>100 First Stamford Place, Suite 700, STAMFORD, CT, 06902 US</v>
-    <v>480.68</v>
+    <v>498.96</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45259.888901550781</v>
+    <v>45269.03054172422</v>
     <v>0</v>
-    <v>461.5326</v>
-    <v>32284982449</v>
+    <v>483.46749999999997</v>
+    <v>33555884637</v>
     <v>UNITED RENTALS, INC.</v>
     <v>UNITED RENTALS, INC.</v>
-    <v>461.79</v>
-    <v>13.805899999999999</v>
-    <v>455.88</v>
-    <v>476.31</v>
-    <v>476.5</v>
+    <v>483.81</v>
+    <v>14.032</v>
+    <v>484.02</v>
+    <v>495.06</v>
+    <v>496</v>
     <v>67781450</v>
     <v>URI</v>
     <v>UNITED RENTALS, INC. (XNYS:URI)</v>
-    <v>861655</v>
-    <v>731730</v>
+    <v>556660</v>
+    <v>699948</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2090,9 +2099,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14039,7 +14048,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14056,7 +14065,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>32284982449</v>
+        <v>33555884637</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>201</v>
@@ -14084,14 +14093,14 @@
       </c>
       <c r="I3" s="31">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>60357667217.760742</v>
+        <v>59228679175.500496</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="33">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>6.3497014540377953E-3</v>
+        <v>6.1092116097561967E-3</v>
       </c>
       <c r="L3" s="34" t="s">
         <v>206</v>
@@ -14136,14 +14145,14 @@
       </c>
       <c r="I4" s="41">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>52002094949.250412</v>
+        <v>51006208827.064316</v>
       </c>
       <c r="J4" s="39" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="42" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.4814E-2</v>
+        <v>2.2808999999999999E-2</v>
       </c>
       <c r="L4" s="43" t="s">
         <v>213</v>
@@ -14188,14 +14197,14 @@
       </c>
       <c r="I5" s="41">
         <f>I4+G5-G6</f>
-        <v>39396094949.250412</v>
+        <v>38400208827.064316</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="45" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>476.31</v>
+        <v>495.06</v>
       </c>
       <c r="L5" s="46" t="s">
         <v>220</v>
@@ -14215,7 +14224,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="49">
         <f>O20/F10</f>
-        <v>2.2668854408790899</v>
+        <v>2.3561216568599916</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>222</v>
@@ -14243,14 +14252,14 @@
       </c>
       <c r="I6" s="42">
         <f>N25</f>
-        <v>7.8748349622189989E-2</v>
+        <v>7.9772874309544078E-2</v>
       </c>
       <c r="J6" s="39" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="50">
         <f>I5/G4</f>
-        <v>686.07593687250642</v>
+        <v>668.73275843877298</v>
       </c>
       <c r="L6" s="51" t="s">
         <v>226</v>
@@ -14270,14 +14279,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52">
         <f>O20/F12</f>
-        <v>11.667864997831586</v>
+        <v>12.127171896277558</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="54">
         <f>F15/A3</f>
-        <v>6.0802263191591183E-2</v>
+        <v>5.8499426292445922E-2</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>229</v>
@@ -14304,7 +14313,7 @@
       </c>
       <c r="K7" s="60">
         <f>K6/K5-1</f>
-        <v>0.44039792755244789</v>
+        <v>0.35081153484178285</v>
       </c>
       <c r="L7" s="61" t="s">
         <v>232</v>
@@ -14631,7 +14640,7 @@
       </c>
       <c r="O14" s="80">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.3360000000000003E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -14783,7 +14792,7 @@
       </c>
       <c r="O17" s="90">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.7411200000000003E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
@@ -14866,24 +14875,24 @@
       </c>
       <c r="O20" s="96">
         <f>A3</f>
-        <v>32284982449</v>
+        <v>33555884637</v>
       </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109" t="str" cm="1">
+      <c r="A21" s="119" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="119" cm="1">
-        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="120" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1998</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
+      <c r="E21" s="120"/>
       <c r="F21" s="63"/>
       <c r="G21" s="63"/>
       <c r="H21" s="63"/>
@@ -14896,7 +14905,7 @@
       </c>
       <c r="O21" s="96">
         <f>O19+O20</f>
-        <v>45117982449</v>
+        <v>46388884637</v>
       </c>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
@@ -14924,7 +14933,7 @@
       </c>
       <c r="O22" s="98">
         <f>(O19/O21)</f>
-        <v>0.2844320446843126</v>
+        <v>0.27663954631416893</v>
       </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
@@ -14949,7 +14958,7 @@
       </c>
       <c r="O23" s="99">
         <f>O20/O21</f>
-        <v>0.7155679553156874</v>
+        <v>0.72336045368583113</v>
       </c>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
@@ -14993,7 +15002,7 @@
       <c r="M25" s="63"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.8748349622189989E-2</v>
+        <v>7.9772874309544078E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="35"/>
@@ -15928,8 +15937,8 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:URI/explorer/revenue_proj" xr:uid="{E4B08589-135D-A84A-B3C2-B455F082FBA9}"/>
